--- a/data/trans_dic/P07_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P07_R2-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9216673721080537</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8690037315329403</v>
+        <v>0.8690037315329404</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.833906553105241</v>
@@ -697,7 +697,7 @@
         <v>0.91284363001025</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8655565985777889</v>
+        <v>0.8655565985777887</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8491067952629052</v>
+        <v>0.855238682788771</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8578859977805481</v>
+        <v>0.8527368218755725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8933369786912584</v>
+        <v>0.8905853019574792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.836305780068455</v>
+        <v>0.8380599667845117</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.789099646018726</v>
+        <v>0.7850356806619502</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8602881533093348</v>
+        <v>0.8649721103195502</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8652259089868475</v>
+        <v>0.8627726355193026</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8319018166329912</v>
+        <v>0.8366396689301928</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8396413637446518</v>
+        <v>0.8366724755254903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8699863848570811</v>
+        <v>0.8686214138600549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8893091872375672</v>
+        <v>0.8884900782738754</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.846248008152205</v>
+        <v>0.8437966715168705</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9106971082494533</v>
+        <v>0.9143388766308463</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9223357157169407</v>
+        <v>0.922425482797227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9445132970729674</v>
+        <v>0.9442531637630053</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8958285260749936</v>
+        <v>0.8936828182011052</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8736214774164877</v>
+        <v>0.8725198849328245</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9304524075081592</v>
+        <v>0.9316039598689038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9334388779318867</v>
+        <v>0.9304524127267726</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8843921267033575</v>
+        <v>0.8852801272305204</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8880860994179081</v>
+        <v>0.8873452562562674</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9192270160228666</v>
+        <v>0.9187684617394972</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.93206317978791</v>
+        <v>0.93171752548691</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8860063422919797</v>
+        <v>0.8859861103238084</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8865906862189052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8798422295452569</v>
+        <v>0.879842229545257</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8474735552440733</v>
@@ -833,7 +833,7 @@
         <v>0.8761390536121709</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.8682124668296654</v>
+        <v>0.8682124668296655</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8550643447479201</v>
+        <v>0.8563722978432425</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8512163431836283</v>
+        <v>0.8515774026973755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8468128343318726</v>
+        <v>0.8470044983216442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8513919656337908</v>
+        <v>0.8484882697272105</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8064872923471125</v>
+        <v>0.8033259760173591</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8126445954402798</v>
+        <v>0.8153348587107391</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8239046215896846</v>
+        <v>0.8254933289103185</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8242622587876705</v>
+        <v>0.825483619152921</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8417692676644362</v>
+        <v>0.8423373551855674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8475433614041192</v>
+        <v>0.8463534151735587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8496687998316459</v>
+        <v>0.8505583667555658</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8487347382512214</v>
+        <v>0.8488993233959462</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9207183379573194</v>
+        <v>0.9191563495640481</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9179420335151988</v>
+        <v>0.9186873309289287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9177934894946889</v>
+        <v>0.9153362051681609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9050485568452818</v>
+        <v>0.9044310302494738</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8839373581693167</v>
+        <v>0.8818262784286902</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8963854451191581</v>
+        <v>0.896158287977969</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8993158497704867</v>
+        <v>0.8988416465159066</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8830029748032631</v>
+        <v>0.8816431383546602</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8925440463664381</v>
+        <v>0.8931984135643101</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9007845280321057</v>
+        <v>0.8995541300210186</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8985297460130277</v>
+        <v>0.8988025203743302</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.887523850207713</v>
+        <v>0.8872028186835492</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8251924977179989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7956480813869713</v>
+        <v>0.7956480813869712</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7187775406717242</v>
@@ -969,7 +969,7 @@
         <v>0.8015494948666264</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7746098498532772</v>
+        <v>0.7746098498532773</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8047104259139104</v>
+        <v>0.8044893326423014</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7392614140284446</v>
+        <v>0.7396632631891356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.789151811027109</v>
+        <v>0.7880279494044989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7580577575754024</v>
+        <v>0.7533104865862611</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6489986106773389</v>
+        <v>0.6470869282105747</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7044770460093579</v>
+        <v>0.7031009806639427</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6527048299892104</v>
+        <v>0.6489506442651509</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6642847551429478</v>
+        <v>0.6654680831205212</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7794962867047116</v>
+        <v>0.7761228848701065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.740981976274685</v>
+        <v>0.7444939135046589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7689460906431901</v>
+        <v>0.762267626080017</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7458747871722085</v>
+        <v>0.744644902927321</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8663759187244187</v>
+        <v>0.8702819248169971</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8119743446460314</v>
+        <v>0.8077999318742712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8549116047062261</v>
+        <v>0.8587745395722027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8306551101707855</v>
+        <v>0.8282703477271038</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7891436033749962</v>
+        <v>0.7805374892057869</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8116239373617562</v>
+        <v>0.810377823867936</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7972624513924385</v>
+        <v>0.7944788516756728</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7722334390800133</v>
+        <v>0.7695551430436227</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8367901267768051</v>
+        <v>0.8375418450623968</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7992960920479939</v>
+        <v>0.8015249917857089</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8307036572959156</v>
+        <v>0.8302125567972614</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8050191709751956</v>
+        <v>0.8042105368018533</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.8049787555692848</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7867434086894384</v>
+        <v>0.7867434086894385</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7884170543979279</v>
+        <v>0.7889584142562585</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.776090485662535</v>
+        <v>0.7723901386606414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7841608400862932</v>
+        <v>0.784247772795084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7596142075083694</v>
+        <v>0.7588802148184188</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7240516298042206</v>
+        <v>0.7201338893581533</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7550442253064324</v>
+        <v>0.7514310666059616</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7720959429660195</v>
+        <v>0.7696981674787895</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7657951090282227</v>
+        <v>0.7679564344958693</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7703134524716413</v>
+        <v>0.771541391747382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7704855315707614</v>
+        <v>0.7761278686164227</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7873057849786289</v>
+        <v>0.7863918450797882</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7706317029474441</v>
+        <v>0.7687103558648747</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8311289921389706</v>
+        <v>0.8309198621537617</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8248241663352698</v>
+        <v>0.8216937172395169</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8303920827109332</v>
+        <v>0.8302457958329622</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8074681179415217</v>
+        <v>0.8068771299899691</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7871228673400444</v>
+        <v>0.7860573793133304</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8168095834598511</v>
+        <v>0.8135062087943926</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.827898821099211</v>
+        <v>0.8259629962686852</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8123655274242105</v>
+        <v>0.8133606943740693</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8077557328504882</v>
+        <v>0.8074603174999165</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8113992711044321</v>
+        <v>0.8131445499165794</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8228569744790877</v>
+        <v>0.8232735373426715</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8024950660980771</v>
+        <v>0.8032400121006131</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7818783122678418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7889558666125998</v>
+        <v>0.7889558666125996</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6702066171812536</v>
@@ -1229,7 +1229,7 @@
         <v>0.6860522625009323</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6587615635495804</v>
+        <v>0.6587615635495805</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.70862604499826</v>
@@ -1241,7 +1241,7 @@
         <v>0.7298891595458655</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7116246637531207</v>
+        <v>0.7116246637531206</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7229045930467273</v>
+        <v>0.7205878333195466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7790325520722503</v>
+        <v>0.7803500405449063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7466686374675821</v>
+        <v>0.7465453703180364</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.749853264008604</v>
+        <v>0.7521625661460134</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6254121569333772</v>
+        <v>0.6267163435746288</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5991090643478939</v>
+        <v>0.6006793923641246</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6518940249075098</v>
+        <v>0.6484925028187688</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6321750562727985</v>
+        <v>0.6344698393185056</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6778072877557713</v>
+        <v>0.6782548692404385</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.684170116013478</v>
+        <v>0.6812948760434802</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.702333084982502</v>
+        <v>0.7030343489195361</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.68931146805106</v>
+        <v>0.688740953234394</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8162072804468942</v>
+        <v>0.8130100013711705</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8481352655668344</v>
+        <v>0.8486574028795673</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8134354822928758</v>
+        <v>0.8114100191784018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8209407644220681</v>
+        <v>0.8221450045842853</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7099241306662071</v>
+        <v>0.7082719503060561</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6702387319745363</v>
+        <v>0.6737619755856618</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7196254199576938</v>
+        <v>0.7220594172242958</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6863185274638942</v>
+        <v>0.6851999598228087</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7366103857236309</v>
+        <v>0.7375463716629658</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7349105129219075</v>
+        <v>0.7346738071057325</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7530052233037212</v>
+        <v>0.7558720713683267</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7335550709637974</v>
+        <v>0.7327243517441274</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.9690799447488101</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9556946069403723</v>
+        <v>0.9556946069403722</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.6397786208619038</v>
@@ -1365,7 +1365,7 @@
         <v>0.7088642956965984</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.7035289720788543</v>
+        <v>0.7035289720788545</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7015278898072653</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9324159809222115</v>
+        <v>0.9310185517751196</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.910627290982715</v>
+        <v>0.909227709174534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9460393263427967</v>
+        <v>0.9452192070624148</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9192115587974785</v>
+        <v>0.9203606554995786</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6114132413599644</v>
+        <v>0.6129204274428617</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6392693687339953</v>
+        <v>0.6416217381311283</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6783699785894464</v>
+        <v>0.6773881036302104</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6756373289699619</v>
+        <v>0.674234496166134</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6776357953603844</v>
+        <v>0.6775601069464068</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7042006983320916</v>
+        <v>0.7001677309078663</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7399476878830364</v>
+        <v>0.7389340904367849</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7359491152217389</v>
+        <v>0.7343001690905608</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9785344674888298</v>
+        <v>0.9775973470547389</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9737381647127925</v>
+        <v>0.9749714766589248</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.985544684917643</v>
+        <v>0.9834708594105661</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9781048002674062</v>
+        <v>0.977940073764472</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6652006332861075</v>
+        <v>0.6661222127220366</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6982231638957482</v>
+        <v>0.6997570929094634</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7369519226484719</v>
+        <v>0.7377371129547925</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7292842272403179</v>
+        <v>0.7281349896786893</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7241777154111448</v>
+        <v>0.7248455735482193</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7495418756959052</v>
+        <v>0.7526247525887821</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7872224709263039</v>
+        <v>0.7901223218944418</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7841411345888082</v>
+        <v>0.7819744509466642</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.830479960005656</v>
+        <v>0.8308248754093891</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8192766859095947</v>
+        <v>0.8181049649548884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8301703962393118</v>
+        <v>0.8306931705733461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8119354673271948</v>
+        <v>0.8118946869950596</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6984801204739106</v>
+        <v>0.6987192643196839</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7203379626335793</v>
+        <v>0.7196318993019652</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7473551898525067</v>
+        <v>0.7480593559713304</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7427282784426067</v>
+        <v>0.7412766736364161</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7678011353373596</v>
+        <v>0.7674458292751206</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7731967692243069</v>
+        <v>0.7725207979202007</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7923711232191076</v>
+        <v>0.7918945680804816</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7793818584269828</v>
+        <v>0.7792357049563143</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8554534954708959</v>
+        <v>0.8558705214669148</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8468074439252657</v>
+        <v>0.8462542436226042</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8551383320829663</v>
+        <v>0.8548648510158956</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8366744459789961</v>
+        <v>0.8375736426463484</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7298762059178446</v>
+        <v>0.7283651546880764</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7492079703887146</v>
+        <v>0.7490633094660434</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7774115727744979</v>
+        <v>0.7766904915460208</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7650883786780632</v>
+        <v>0.7646256002250501</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7870956009566931</v>
+        <v>0.7875825889092827</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7929532871784999</v>
+        <v>0.7924659264594616</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8122499110356359</v>
+        <v>0.8102991377322891</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.797127595962997</v>
+        <v>0.7969429426183517</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>402286</v>
+        <v>405192</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>373414</v>
+        <v>371172</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>380661</v>
+        <v>379488</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>460485</v>
+        <v>461451</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>242001</v>
+        <v>240755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>270521</v>
+        <v>271994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>300281</v>
+        <v>299430</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>406310</v>
+        <v>408624</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>655304</v>
+        <v>652987</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>652251</v>
+        <v>651228</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>687584</v>
+        <v>686950</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>879276</v>
+        <v>876729</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>431466</v>
+        <v>433192</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>401467</v>
+        <v>401506</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>402468</v>
+        <v>402357</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>493259</v>
+        <v>492078</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>267922</v>
+        <v>267584</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>292584</v>
+        <v>292947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>323955</v>
+        <v>322918</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>431947</v>
+        <v>432381</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>693113</v>
+        <v>692535</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>689168</v>
+        <v>688825</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>720640</v>
+        <v>720372</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>920586</v>
+        <v>920565</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>312825</v>
+        <v>313304</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>356487</v>
+        <v>356638</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>318680</v>
+        <v>318752</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>411403</v>
+        <v>410000</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>299904</v>
+        <v>298729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>273882</v>
+        <v>274788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>306717</v>
+        <v>307309</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>348781</v>
+        <v>349298</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>620986</v>
+        <v>621405</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>640592</v>
+        <v>639693</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>636065</v>
+        <v>636731</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>769255</v>
+        <v>769404</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>336845</v>
+        <v>336273</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>384431</v>
+        <v>384743</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>345392</v>
+        <v>344468</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>437330</v>
+        <v>437032</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>328705</v>
+        <v>327920</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>302104</v>
+        <v>302028</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>334791</v>
+        <v>334614</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>373637</v>
+        <v>373061</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>658443</v>
+        <v>658926</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>680833</v>
+        <v>679903</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>672642</v>
+        <v>672846</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>804412</v>
+        <v>804121</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>436466</v>
+        <v>436346</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>463053</v>
+        <v>463305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>411869</v>
+        <v>411283</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>357509</v>
+        <v>355270</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108890</v>
+        <v>108570</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>183255</v>
+        <v>182897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>107058</v>
+        <v>106442</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>124551</v>
+        <v>124773</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>553576</v>
+        <v>551180</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>656883</v>
+        <v>659996</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>527447</v>
+        <v>522866</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>491613</v>
+        <v>490802</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>469913</v>
+        <v>472031</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>508599</v>
+        <v>505984</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>446190</v>
+        <v>448206</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>391747</v>
+        <v>390622</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>132404</v>
+        <v>130960</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>211127</v>
+        <v>210803</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>130769</v>
+        <v>130312</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>144791</v>
+        <v>144289</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>594264</v>
+        <v>594798</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>708578</v>
+        <v>710554</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>569809</v>
+        <v>569472</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>530595</v>
+        <v>530062</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>976324</v>
+        <v>976994</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>898495</v>
+        <v>894211</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>901501</v>
+        <v>901601</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>859764</v>
+        <v>858933</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>517179</v>
+        <v>514381</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>578860</v>
+        <v>576090</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>637656</v>
+        <v>635675</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>659511</v>
+        <v>661373</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1504129</v>
+        <v>1506527</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1482705</v>
+        <v>1493563</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1555334</v>
+        <v>1553528</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1535911</v>
+        <v>1532081</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1029215</v>
+        <v>1028956</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>954915</v>
+        <v>951290</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>954650</v>
+        <v>954482</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>913927</v>
+        <v>913258</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>562230</v>
+        <v>561469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>626213</v>
+        <v>623680</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>683742</v>
+        <v>682143</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>699618</v>
+        <v>700475</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1577240</v>
+        <v>1576663</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1561438</v>
+        <v>1564797</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1625565</v>
+        <v>1626388</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1599416</v>
+        <v>1600901</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>253418</v>
+        <v>252606</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>397185</v>
+        <v>397857</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>463462</v>
+        <v>463385</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>425890</v>
+        <v>427201</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>355704</v>
+        <v>356446</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>454485</v>
+        <v>455676</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>479883</v>
+        <v>477379</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>525243</v>
+        <v>527149</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>623113</v>
+        <v>623524</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>867831</v>
+        <v>864184</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>952956</v>
+        <v>953907</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>964219</v>
+        <v>963420</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>286126</v>
+        <v>285005</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>432417</v>
+        <v>432683</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>504904</v>
+        <v>503647</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>466265</v>
+        <v>466949</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>403771</v>
+        <v>402831</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>508444</v>
+        <v>511117</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>529743</v>
+        <v>531535</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>570228</v>
+        <v>569298</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>677171</v>
+        <v>678032</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>932193</v>
+        <v>931893</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1021710</v>
+        <v>1025600</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1026107</v>
+        <v>1024945</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>278047</v>
+        <v>277631</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>243030</v>
+        <v>242657</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>270747</v>
+        <v>270512</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>218063</v>
+        <v>218335</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>763508</v>
+        <v>765391</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>708570</v>
+        <v>711177</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>733320</v>
+        <v>732259</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>570428</v>
+        <v>569243</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1048275</v>
+        <v>1048158</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>968479</v>
+        <v>962932</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1011651</v>
+        <v>1010266</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>795936</v>
+        <v>794152</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>291800</v>
+        <v>291521</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>259873</v>
+        <v>260202</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>282053</v>
+        <v>281460</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>232034</v>
+        <v>231995</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>830676</v>
+        <v>831827</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>773915</v>
+        <v>775615</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>796647</v>
+        <v>797496</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>615721</v>
+        <v>614751</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1120274</v>
+        <v>1121307</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>1030836</v>
+        <v>1035076</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1076285</v>
+        <v>1080250</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>848056</v>
+        <v>845712</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2714927</v>
+        <v>2716055</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2797737</v>
+        <v>2793736</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2806713</v>
+        <v>2808481</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2795068</v>
+        <v>2794928</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2359552</v>
+        <v>2360360</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2553795</v>
+        <v>2551292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2635448</v>
+        <v>2637931</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2700109</v>
+        <v>2694832</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5103751</v>
+        <v>5101389</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5381573</v>
+        <v>5376868</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5473109</v>
+        <v>5469817</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5516363</v>
+        <v>5515328</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2796568</v>
+        <v>2797931</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2891752</v>
+        <v>2889863</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2891127</v>
+        <v>2890202</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2880232</v>
+        <v>2883327</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2465612</v>
+        <v>2460508</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2656147</v>
+        <v>2655634</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2741438</v>
+        <v>2738895</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2781397</v>
+        <v>2779715</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5232005</v>
+        <v>5235243</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5519082</v>
+        <v>5515690</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5610416</v>
+        <v>5596942</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>5641965</v>
+        <v>5640658</v>
       </c>
     </row>
     <row r="32">
